--- a/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.11105678948704</v>
+        <v>7.500450361809079</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.229919561673618</v>
+        <v>3.349514154777152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.917853193791635</v>
+        <v>2.078636512017234</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.77457976875688</v>
+        <v>2.002528280025192</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5739282422380622</v>
+        <v>0.597254309152092</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7274539527729591</v>
+        <v>0.7255983048825206</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.4165287331076</v>
+        <v>13.63353666722301</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.658765014016273</v>
+        <v>9.938130901019338</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.868857026022322</v>
+        <v>7.022737432158804</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10.57441871335856</v>
+        <v>10.15005992086234</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.004189458724638</v>
+        <v>4.177581636707331</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14.64747733861359</v>
+        <v>12.10983016544852</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11.3598748710271</v>
+        <v>11.66597402943447</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.89924901815905</v>
+        <v>11.33168089872068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.438412308312164</v>
+        <v>3.692263642405111</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.328742251992174</v>
+        <v>2.302156254255056</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>2.229600038004559</v>
+        <v>2.307699094873636</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9059214822663123</v>
+        <v>0.8786198880103822</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.27283216558672</v>
+        <v>18.73805335946767</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.20097059833112</v>
+        <v>18.33356096560635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.826852561023133</v>
+        <v>9.133321114741406</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.89448658896866</v>
+        <v>7.111537710134335</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.529806842022071</v>
+        <v>7.501534244679727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.00401492952756</v>
+        <v>5.448066418206008</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.661882321259078</v>
+        <v>2.679511957117545</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.455544051809481</v>
+        <v>2.452439529356001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.706075671792077</v>
+        <v>1.674710019677579</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.8680686744013116</v>
+        <v>0.8911642847002286</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5709500449474835</v>
+        <v>0.6015150331419694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.060791026408555</v>
+        <v>1.105353004129886</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.100886392774178</v>
+        <v>6.965170650752634</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.296252575471793</v>
+        <v>7.228182791502586</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.906604054890672</v>
+        <v>4.951524822016896</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.730336154954762</v>
+        <v>5.36002708596609</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.66978368453252</v>
+        <v>3.661228500096846</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>22.60658900341148</v>
+        <v>22.83606904934065</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.719260451601791</v>
+        <v>1.586674266036551</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.06149145048400821</v>
+        <v>0.0407068267717404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.086537261556004</v>
+        <v>0.9497276012680198</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.7161461550369079</v>
+        <v>0.4989298195858187</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06438638505428906</v>
+        <v>-0.04957399075170017</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6667734186851901</v>
+        <v>0.2500478234545346</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.964660153772186</v>
+        <v>6.026591091221309</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.851581785549429</v>
+        <v>4.529621835044559</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.498687823901005</v>
+        <v>4.11264048924083</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12.4809745914107</v>
+        <v>12.07078460242092</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.576443739734641</v>
+        <v>2.458080545235038</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19.98371610925484</v>
+        <v>18.24271409414672</v>
       </c>
     </row>
     <row r="16">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.307150256026761</v>
+        <v>-1.532102634242786</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7787246549698561</v>
+        <v>-0.6030877124884289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6918189298762832</v>
+        <v>0.698391693790083</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.6369717175504921</v>
+        <v>-0.6566882315148018</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6263908771748199</v>
+        <v>-0.497107434489735</v>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
     </row>
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.641831453854413</v>
+        <v>2.453004527964545</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.592660891432155</v>
+        <v>2.640889861787102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.030623740404539</v>
+        <v>3.055955714653691</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.720535493896543</v>
+        <v>3.383090875640337</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7.030567313129349</v>
+        <v>7.267022399175737</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
     </row>
@@ -1046,17 +1046,19 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.5468099162341996</v>
+        <v>-0.7006872387512951</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03311736348547207</v>
+        <v>-0.3148659675420201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.495691326292359</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr"/>
+        <v>-2.379938007174368</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.7531557870809525</v>
+      </c>
       <c r="G20" s="6" t="n">
-        <v>-0.613007863827645</v>
+        <v>-0.6597936950548031</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
     </row>
@@ -1068,13 +1070,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.577698720873028</v>
+        <v>2.695109950636345</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.431648273878822</v>
+        <v>4.040545265476957</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.007147459615831997</v>
+        <v>0.251835581603484</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1121,12 +1123,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2985829833794861</v>
+        <v>-0.4347318731142299</v>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>-0.5076058806829403</v>
+        <v>-0.5589831668385739</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
     </row>
@@ -1138,10 +1140,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.277170963189022</v>
+        <v>2.175734470580885</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.234810057937024</v>
+        <v>3.324808756418393</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="6" t="inlineStr"/>
@@ -1186,22 +1188,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.769403931935353</v>
+        <v>4.814157683623267</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.89330508305506</v>
+        <v>3.924789090822673</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.949627542766491</v>
+        <v>1.899311791839556</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2.000443859049671</v>
+        <v>1.993351683336052</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.254662782519985</v>
+        <v>1.279298157129532</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.590302402549051</v>
+        <v>1.524425768829856</v>
       </c>
     </row>
     <row r="27">
@@ -1212,22 +1214,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.977726395359057</v>
+        <v>6.949710156518975</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.956288862975221</v>
+        <v>6.027052852051836</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.332137171405332</v>
+        <v>3.275572825074177</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.318697073733399</v>
+        <v>4.195915535521812</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.755312330716358</v>
+        <v>2.848644577567059</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.617156777241086</v>
+        <v>4.651901967901122</v>
       </c>
     </row>
     <row r="28">
